--- a/BOM/BOM/Excel/BillOfMaterials.xlsx
+++ b/BOM/BOM/Excel/BillOfMaterials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gd19\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BOMProject\BOM\BOM\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBD1BF3-1B37-4DBF-A2AA-D6404553F957}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A49B8C-40C0-4294-9078-B7F88748C471}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21810" yWindow="3945" windowWidth="13470" windowHeight="12585" xr2:uid="{A3BB9F7E-0E58-4E9B-A60B-8122A3EB2B71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3BB9F7E-0E58-4E9B-A60B-8122A3EB2B71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,6 +228,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,28 +249,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,7 +578,7 @@
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,50 +589,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -658,148 +658,148 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
